--- a/assignment71/HeatForOMP/task_2/graph2.xlsx
+++ b/assignment71/HeatForOMP/task_2/graph2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemra\Downloads\Programming_of_supercomputer\pos_21_group12\assignment71\HeatForOMP\task_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA09DD00-9536-4379-A557-011761345D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B1DF3-D86F-46B8-A074-DD9CB308DB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,28 +278,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.9692697344661765</c:v>
+                  <c:v>10.429088023417158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8713099154434389</c:v>
+                  <c:v>6.5726786626077924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8710409577008473</c:v>
+                  <c:v>6.5717339912835575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4719737295387114</c:v>
+                  <c:v>12.194755909186885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4135462389616205</c:v>
+                  <c:v>11.989538634668911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4832345454798346</c:v>
+                  <c:v>8.7219666697796594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6069013486953185</c:v>
+                  <c:v>12.668667726843744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4482920368633074</c:v>
+                  <c:v>12.111577727498483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,28 +373,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.6274339090350756</c:v>
+                  <c:v>14.812603346224195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0614316239316244</c:v>
+                  <c:v>13.32276490870241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0679228080838774</c:v>
+                  <c:v>13.339851086461024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2672761121453782</c:v>
+                  <c:v>24.393442440745787</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2301390941445405</c:v>
+                  <c:v>24.29568990806392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8204220023639985</c:v>
+                  <c:v>17.952801829031376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3113113783823014</c:v>
+                  <c:v>24.509352630462217</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3159408955057117</c:v>
+                  <c:v>24.521538504511049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,28 +468,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.9727202821128653</c:v>
+                  <c:v>14.869455049271515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5728045167681302</c:v>
+                  <c:v>20.414182800749696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.156353086710649</c:v>
+                  <c:v>32.321203463713481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.641169362096008</c:v>
+                  <c:v>37.620120158726081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.698964260109522</c:v>
+                  <c:v>33.478331833366383</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.404738551038356</c:v>
+                  <c:v>37.115927078400873</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.384701327433628</c:v>
+                  <c:v>24.278086283185846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.173832323627126</c:v>
+                  <c:v>23.828404229909022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,28 +563,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.6025489507963213</c:v>
+                  <c:v>11.326749790985003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.812984364377972</c:v>
+                  <c:v>27.127359248501328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.768277273536217</c:v>
+                  <c:v>39.059245417334054</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.190991924021901</c:v>
+                  <c:v>48.361975694941776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.491311421618221</c:v>
+                  <c:v>30.006548904869984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.873413402483962</c:v>
+                  <c:v>27.231025968708515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.714652359219127</c:v>
+                  <c:v>50.975832955904728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.155077322374822</c:v>
+                  <c:v>43.153828760187579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,7 +1751,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,36 +1937,36 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <f>$B18/B2</f>
-        <v>2.9692697344661765</v>
+        <f>$B$24/B2</f>
+        <v>10.429088023417158</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:I9" si="0">$B18/C2</f>
-        <v>1.8713099154434389</v>
+        <f t="shared" ref="C9:I9" si="0">$B$24/C2</f>
+        <v>6.5726786626077924</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.8710409577008473</v>
+        <v>6.5717339912835575</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>3.4719737295387114</v>
+        <v>12.194755909186885</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>3.4135462389616205</v>
+        <v>11.989538634668911</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>2.4832345454798346</v>
+        <v>8.7219666697796594</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>3.6069013486953185</v>
+        <v>12.668667726843744</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>3.4482920368633074</v>
+        <v>12.111577727498483</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1974,36 +1974,36 @@
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <f t="shared" ref="B10:I12" si="1">$B19/B3</f>
-        <v>5.6274339090350756</v>
+        <f t="shared" ref="B10:I12" si="1">$B$24/B3</f>
+        <v>14.812603346224195</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="1"/>
-        <v>5.0614316239316244</v>
+        <v>13.32276490870241</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
-        <v>5.0679228080838774</v>
+        <v>13.339851086461024</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>9.2672761121453782</v>
+        <v>24.393442440745787</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>9.2301390941445405</v>
+        <v>24.29568990806392</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="1"/>
-        <v>6.8204220023639985</v>
+        <v>17.952801829031376</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="1"/>
-        <v>9.3113113783823014</v>
+        <v>24.509352630462217</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>9.3159408955057117</v>
+        <v>24.521538504511049</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2012,35 +2012,35 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" si="1"/>
-        <v>6.9727202821128653</v>
+        <v>14.869455049271515</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>9.5728045167681302</v>
+        <v>20.414182800749696</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
-        <v>15.156353086710649</v>
+        <v>32.321203463713481</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>17.641169362096008</v>
+        <v>37.620120158726081</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>15.698964260109522</v>
+        <v>33.478331833366383</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="1"/>
-        <v>17.404738551038356</v>
+        <v>37.115927078400873</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="1"/>
-        <v>11.384701327433628</v>
+        <v>24.278086283185846</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>11.173832323627126</v>
+        <v>23.828404229909022</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2049,35 +2049,35 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" si="1"/>
-        <v>6.6025489507963213</v>
+        <v>11.326749790985003</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>15.812984364377972</v>
+        <v>27.127359248501328</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
-        <v>22.768277273536217</v>
+        <v>39.059245417334054</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>28.190991924021901</v>
+        <v>48.361975694941776</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>17.491311421618221</v>
+        <v>30.006548904869984</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
-        <v>15.873413402483962</v>
+        <v>27.231025968708515</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="1"/>
-        <v>29.714652359219127</v>
+        <v>50.975832955904728</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="1"/>
-        <v>25.155077322374822</v>
+        <v>43.153828760187579</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
